--- a/Documents/Foodies_TC_Report.xlsx
+++ b/Documents/Foodies_TC_Report.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="15">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -38,12 +39,39 @@
   <si>
     <t>Status</t>
   </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Not Run</t>
+  </si>
+  <si>
+    <t>Total TCs</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>For Analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +106,45 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -114,11 +181,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -133,10 +201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,6 +223,927 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1111111111111109E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.79224482356372117"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,12 +1420,13 @@
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,20 +1440,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -469,8 +1469,1828 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O303">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Analysis!$A$3:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G72</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(Sheet1!G:G,"Passed",Sheet1!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <f>B3/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(Sheet1!G:G,"Failed",Sheet1!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <f>B4/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(Sheet1!G:G,"Blocked",Sheet1!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <f>B5/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>B2-B3-B4-B5</f>
+        <v>50</v>
+      </c>
+      <c r="C6" s="10">
+        <f>B6/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>